--- a/predict_model/predict_results/0_train_6nstep_denguefever_prediction_results_by_RandomForest_in_An Giang.xlsx
+++ b/predict_model/predict_results/0_train_6nstep_denguefever_prediction_results_by_RandomForest_in_An Giang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,18 +477,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2013-08-31</t>
+          <t>2014-01-31</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.10820061084552</v>
+        <v>4.5458762</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3026360495513771</v>
+        <v>9.140488943781765</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,32 +496,32 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G2" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I2" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2013-09-30</t>
+          <t>2014-02-28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-42.25064245766207</v>
+        <v>2.1801651</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.168017390643433</v>
+        <v>9.461154124514554</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -529,32 +529,32 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G3" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I3" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2013-10-31</t>
+          <t>2014-03-31</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-100.3384631956425</v>
+        <v>1.9946192</v>
       </c>
       <c r="D4" t="n">
-        <v>1.302617970335155</v>
+        <v>10.14419694582177</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -562,32 +562,32 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G4" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I4" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2013-11-30</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>396.6351528343973</v>
+        <v>3.9428518</v>
       </c>
       <c r="D5" t="n">
-        <v>1.649572247487424</v>
+        <v>10.8734948021729</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,32 +595,32 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G5" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I5" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2014-05-31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-164.8804939588622</v>
+        <v>3.9892383</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5614866583714</v>
+        <v>11.78953507068766</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -628,32 +628,32 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G6" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I6" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014-01-31</t>
+          <t>2014-06-30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-701.3128144687071</v>
+        <v>3.5717599</v>
       </c>
       <c r="D7" t="n">
-        <v>2.341899820055636</v>
+        <v>14.69195686146702</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -661,32 +661,32 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G7" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I7" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2014-02-28</t>
+          <t>2014-07-31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-403.3042690081989</v>
+        <v>3.2934409</v>
       </c>
       <c r="D8" t="n">
-        <v>1.886961780047373</v>
+        <v>15.75189986281695</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,32 +694,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G8" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I8" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2014-03-31</t>
+          <t>2014-08-31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-100.3085272597023</v>
+        <v>7.0043603</v>
       </c>
       <c r="D9" t="n">
-        <v>3.732638040942516</v>
+        <v>17.30292222828472</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -727,32 +727,32 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G9" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I9" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>196.2405092942922</v>
+        <v>8.0248632</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3131109162471458</v>
+        <v>20.14525358759192</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -760,32 +760,32 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G10" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I10" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2014-05-31</t>
+          <t>2014-10-31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-68.07493179801766</v>
+        <v>7.1899063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5636953722604237</v>
+        <v>16.99045515700117</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -793,32 +793,32 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G11" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I11" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2014-11-30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-132.5421088235522</v>
+        <v>6.7724279</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.919028007746439</v>
+        <v>15.51994599161017</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -826,32 +826,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G12" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I12" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2014-07-31</t>
+          <t>2014-12-31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-113.2019654443761</v>
+        <v>6.4941089</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.814184973770275</v>
+        <v>13.35361586140017</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -859,32 +859,32 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G13" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I13" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2015-01-31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>441.2157931095912</v>
+        <v>8.293564399999999</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.287851403544495</v>
+        <v>13.83674298867674</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,32 +892,32 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G14" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I14" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2015-02-28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67.30614134538838</v>
+        <v>3.706621</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.172003298651768</v>
+        <v>11.72429142206109</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -925,32 +925,32 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G15" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I15" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2014-10-31</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-190.5625806545845</v>
+        <v>3.6139554</v>
       </c>
       <c r="D16" t="n">
-        <v>2.360207728191231</v>
+        <v>13.40120355585917</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -958,32 +958,32 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G16" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I16" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2014-11-30</t>
+          <t>2015-04-30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-132.5421088235522</v>
+        <v>4.4479451</v>
       </c>
       <c r="D17" t="n">
-        <v>1.671682932402181</v>
+        <v>13.234068920748</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -991,32 +991,32 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G17" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I17" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2014-12-31</t>
+          <t>2015-05-31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-113.2019654443761</v>
+        <v>5.3746004</v>
       </c>
       <c r="D18" t="n">
-        <v>2.331361966152206</v>
+        <v>13.9927665323143</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1024,32 +1024,32 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G18" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I18" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2015-01-31</t>
+          <t>2015-06-30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>175.5636999695009</v>
+        <v>6.4865867</v>
       </c>
       <c r="D19" t="n">
-        <v>2.225463733912632</v>
+        <v>14.78432925774398</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1057,32 +1057,32 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G19" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I19" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2015-02-28</t>
+          <t>2015-07-31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-712.0074623279248</v>
+        <v>7.3669091</v>
       </c>
       <c r="D20" t="n">
-        <v>2.551882275908508</v>
+        <v>17.42558484648798</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1090,32 +1090,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G20" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I20" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2015-08-31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-87.40014890272772</v>
+        <v>16.540796</v>
       </c>
       <c r="D21" t="n">
-        <v>1.434651302115385</v>
+        <v>19.50019710617823</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1123,32 +1123,32 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G21" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I21" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2015-04-30</t>
+          <t>2015-09-30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41.3848590166732</v>
+        <v>26.7340036</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6774367743569161</v>
+        <v>23.71302707037516</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1156,32 +1156,32 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G22" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I22" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2015-05-31</t>
+          <t>2015-10-31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>54.26335702904636</v>
+        <v>30.9966177</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1368363517865121</v>
+        <v>19.36723905265563</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,32 +1189,32 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G23" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I23" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2015-06-30</t>
+          <t>2015-11-30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>80.02036695162738</v>
+        <v>27.8459899</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.299125868696012</v>
+        <v>20.8575040880228</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1222,32 +1222,32 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G24" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I24" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2015-07-31</t>
+          <t>2015-12-31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>47.82411497177713</v>
+        <v>28.401983</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.875900320653434</v>
+        <v>17.8014744409848</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1255,32 +1255,32 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G25" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I25" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-08-31</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1200.44998588262</v>
+        <v>20.3713135</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.361890829356367</v>
+        <v>18.10972215756397</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1288,32 +1288,32 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G26" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I26" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-09-30</t>
+          <t>2016-02-29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1342.113491814394</v>
+        <v>9.954164499999999</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.223345016576441</v>
+        <v>15.26743533346236</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1321,32 +1321,32 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G27" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I27" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2015-10-31</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>517.8894105549922</v>
+        <v>10.6486411</v>
       </c>
       <c r="D28" t="n">
-        <v>1.290272727256531</v>
+        <v>12.20677469897799</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1354,32 +1354,32 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G28" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I28" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2015-11-30</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-512.3906944937194</v>
+        <v>12.2227881</v>
       </c>
       <c r="D29" t="n">
-        <v>2.330701081687955</v>
+        <v>14.65447414095599</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1387,32 +1387,32 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G29" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I29" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2016-05-31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.749351081719047</v>
+        <v>12.0838928</v>
       </c>
       <c r="D30" t="n">
-        <v>1.41894698052464</v>
+        <v>12.95289221400944</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1420,32 +1420,32 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G30" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I30" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1190.610837066715</v>
+        <v>10.0930599</v>
       </c>
       <c r="D31" t="n">
-        <v>2.525037877151197</v>
+        <v>14.12916223302639</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1453,32 +1453,32 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G31" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I31" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2016-02-29</t>
+          <t>2016-07-31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1522.279785290376</v>
+        <v>7.3614519</v>
       </c>
       <c r="D32" t="n">
-        <v>2.401716531247164</v>
+        <v>17.01760727721726</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1486,32 +1486,32 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G32" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I32" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21.99555899616917</v>
+        <v>9.6300755</v>
       </c>
       <c r="D33" t="n">
-        <v>1.582474255813976</v>
+        <v>20.21554302743389</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1519,32 +1519,32 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G33" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I33" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>144.2506970782331</v>
+        <v>9.3985833</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.667814167277723</v>
+        <v>24.24188764157388</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G34" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I34" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2016-05-31</t>
+          <t>2016-10-31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-93.82509008809238</v>
+        <v>11.3894162</v>
       </c>
       <c r="D35" t="n">
-        <v>11.53591628387366</v>
+        <v>25.85471376250599</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1585,32 +1585,32 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G35" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I35" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016-11-30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-351.2043164521558</v>
+        <v>13.05616</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.358721118713246</v>
+        <v>20.22409052011594</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1618,32 +1618,32 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G36" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I36" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2016-07-31</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-454.1560014386472</v>
+        <v>11.6672068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6892313305365078</v>
+        <v>22.17037947086179</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1651,181 +1651,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>490.7011587151969</v>
+        <v>8.632626608039384</v>
       </c>
       <c r="G37" t="n">
-        <v>316.4385354654204</v>
+        <v>7.893332474382188</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9927923638200638</v>
+        <v>1.304523621356842</v>
       </c>
       <c r="I37" t="n">
-        <v>240787.6271644369</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2016-08-31</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>240.7678930669221</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-3.566073597840129</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>490.7011587151969</v>
-      </c>
-      <c r="G38" t="n">
-        <v>316.4385354654204</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.9927923638200638</v>
-      </c>
-      <c r="I38" t="n">
-        <v>240787.6271644369</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2016-09-30</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>-106.6940541858625</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.3570851375400817</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>490.7011587151969</v>
-      </c>
-      <c r="G39" t="n">
-        <v>316.4385354654204</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9927923638200638</v>
-      </c>
-      <c r="I39" t="n">
-        <v>240787.6271644369</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2016-10-31</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>202.1610146714465</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.016530502650145</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>490.7011587151969</v>
-      </c>
-      <c r="G40" t="n">
-        <v>316.4385354654204</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.9927923638200638</v>
-      </c>
-      <c r="I40" t="n">
-        <v>240787.6271644369</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2016-11-30</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>157.1196472781685</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7.858718236177736</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>490.7011587151969</v>
-      </c>
-      <c r="G41" t="n">
-        <v>316.4385354654204</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.9927923638200638</v>
-      </c>
-      <c r="I41" t="n">
-        <v>240787.6271644369</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2016-12-31</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-267.5560706634021</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1145077689138813</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>490.7011587151969</v>
-      </c>
-      <c r="G42" t="n">
-        <v>316.4385354654204</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.9927923638200638</v>
-      </c>
-      <c r="I42" t="n">
-        <v>240787.6271644369</v>
+        <v>74.52224215382957</v>
       </c>
     </row>
   </sheetData>
